--- a/biology/Médecine/Karim_Boudjema_(médecin)/Karim_Boudjema_(médecin).xlsx
+++ b/biology/Médecine/Karim_Boudjema_(médecin)/Karim_Boudjema_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karim_Boudjema_(m%C3%A9decin)</t>
+          <t>Karim_Boudjema_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karim Boudjema, né le 31 août 1957 à Taher en Algérie, est un chirurgien algérien qui a acquis la nationalité Française. Il exerce actuellement en tant que professeur de chirurgie au sein du CHU de Rennes.
 Il est l'inventeur de la greffe auxiliaire du foie, considéré de nos jours comme l'un des meilleurs chirurgiens du monde dans le domaine de la chirurgie du foie et la transplantation hépatique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karim_Boudjema_(m%C3%A9decin)</t>
+          <t>Karim_Boudjema_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit-fils d'un ouvrier d'une fabrique de bouchons qui avait gravi les échelons en devenant tardivement responsable de l’export, fils d'un médecin généraliste algérien, il fait des études de médecine qu'il entame à Paris puis termine Strasbourg. Interne des Hôpitaux de Strasbourg en 1981, il se passionne pour la greffe d'organes et participe aux côtés des Pr Jacques Cinqualbre puis Daniel Jaeck à l'activité de greffe de rein, de pancréas, de foie. il est nommé successivement chef de clinique-assistant en 1987 puis Professeur des Universités en 1995. C'est à Strasbourg où il a initié un programme de greffe hépatique pédiatrique qu'il réalise en 1993 la première greffe auxiliaire du foie chez garçon de 4 ans atteint d'une hépatite fulminante. En 1994, avec le Pr Siméoni, pédiatre, il réalise les premières greffes multiviscérales abdominales chez l'enfant en Europe. Il quitte Strasbourg en 1998 pour Rennes où il dirige le second centre de chirurgie hépatobiliaire et de transplantation hépatique français. 
-Au CHU de Rennes, il collabore avec les hôpitaux de la région Ouest pour faire la promotion de la chirurgie du foie et de la transplantation. et il collabore en 2007 avec le CHU de Nantes pour réaliser une triple greffe cœur-poumon-foie chez une jeune femme de 18 ans atteinte de mucoviscidose[1].
-Il est élu « Breton de l'année » en 1999[2],[1],[3].
-D'origine algérienne, il retourne régulièrement en Algérie[4] où il a implanté la chirurgie du foie et la transplantation hépatique. Avec le Dr Lakehal il va monter des unités de greffe à Alger, Batna et Constantine, la ville de son enfance. 
-La greffe auxiliaire du foie est une première mondiale dans les années 1990 qui vaudra à Karim Boudjema de publier son expérience dans The Lancet[5], une revue scientifique de référence dans le monde médico-chirurgical. Il est actuellement un chirurgien spécialiste reconnu à l'échelle internationale, parallèlement chercheur à l'INSERM au sein de l'IRSET.
-Il fait une intrusion en politique en 2007. Président du comité de soutien de Nicolas Sarkozy en Ille-et-Vilaine il veut incarner une droite modérée, ouverte et tolérante[6]. L'UMP Il jouera d'ailleurs la carte de l'ouverture et de la diversité en se présentant en tête de liste en 2008 aux élections municipales à Rennes[7],[1]. Karim Boudjema se disait à l'époque plutôt "soutenu" par l'UMP sans en être adhérent[8].
-En novembre 2012, son équipe et lui-même opèrent une femme âgée de 64 ans, atteinte d'un cancer du foie théoriquement inopérable, qui ne lui laissait plus que quelques mois à vivre[9]. Il s'agissait d'une opération ex-vivo pendant laquelle le foie était retiré de l'abdomen pour être opéré en dehors du corps, avant d'être réimplanté dans la cavité abdominale [10].
-Du fait de sa réputation internationale, il demeure l'un des très rares chirurgiens au monde à maîtriser ces techniques chirurgicales reconnues et il est sollicité par de nombreux malades à travers le monde, en particulier en Algérie par des patients en attente d'une greffe de foie. Il a notamment participé entre 2003 et 2010 à la réalisation d'une quarantaine de greffes de foie à l'hôpital Mustapha Pacha d'Alger et en continuant de former les équipes chirurgicales algériennes à ses méthodes, notamment celle de la de greffe auxiliaire hépatique. Son souhait est que tous les malades algériens puissent accéder à la de greffe de foie en Algérie[11],[12].
-Karim Boudjema est également le cofondateur et président du comité scientifique du fonds Nominoë, permettant la construction et le développement de maisons d'accueil pour les familles des enfants hospitalisés à l’hôpital Sud de Rennes et la création de biobanques destinées à faciliter les travaux de recherche en hépatologie (notamment)[13],[14].
+Au CHU de Rennes, il collabore avec les hôpitaux de la région Ouest pour faire la promotion de la chirurgie du foie et de la transplantation. et il collabore en 2007 avec le CHU de Nantes pour réaliser une triple greffe cœur-poumon-foie chez une jeune femme de 18 ans atteinte de mucoviscidose.
+Il est élu « Breton de l'année » en 1999.
+D'origine algérienne, il retourne régulièrement en Algérie où il a implanté la chirurgie du foie et la transplantation hépatique. Avec le Dr Lakehal il va monter des unités de greffe à Alger, Batna et Constantine, la ville de son enfance. 
+La greffe auxiliaire du foie est une première mondiale dans les années 1990 qui vaudra à Karim Boudjema de publier son expérience dans The Lancet, une revue scientifique de référence dans le monde médico-chirurgical. Il est actuellement un chirurgien spécialiste reconnu à l'échelle internationale, parallèlement chercheur à l'INSERM au sein de l'IRSET.
+Il fait une intrusion en politique en 2007. Président du comité de soutien de Nicolas Sarkozy en Ille-et-Vilaine il veut incarner une droite modérée, ouverte et tolérante. L'UMP Il jouera d'ailleurs la carte de l'ouverture et de la diversité en se présentant en tête de liste en 2008 aux élections municipales à Rennes,. Karim Boudjema se disait à l'époque plutôt "soutenu" par l'UMP sans en être adhérent.
+En novembre 2012, son équipe et lui-même opèrent une femme âgée de 64 ans, atteinte d'un cancer du foie théoriquement inopérable, qui ne lui laissait plus que quelques mois à vivre. Il s'agissait d'une opération ex-vivo pendant laquelle le foie était retiré de l'abdomen pour être opéré en dehors du corps, avant d'être réimplanté dans la cavité abdominale .
+Du fait de sa réputation internationale, il demeure l'un des très rares chirurgiens au monde à maîtriser ces techniques chirurgicales reconnues et il est sollicité par de nombreux malades à travers le monde, en particulier en Algérie par des patients en attente d'une greffe de foie. Il a notamment participé entre 2003 et 2010 à la réalisation d'une quarantaine de greffes de foie à l'hôpital Mustapha Pacha d'Alger et en continuant de former les équipes chirurgicales algériennes à ses méthodes, notamment celle de la de greffe auxiliaire hépatique. Son souhait est que tous les malades algériens puissent accéder à la de greffe de foie en Algérie,.
+Karim Boudjema est également le cofondateur et président du comité scientifique du fonds Nominoë, permettant la construction et le développement de maisons d'accueil pour les familles des enfants hospitalisés à l’hôpital Sud de Rennes et la création de biobanques destinées à faciliter les travaux de recherche en hépatologie (notamment),.
 </t>
         </is>
       </c>
